--- a/Template/Export/Sari_R4_119.xlsx
+++ b/Template/Export/Sari_R4_119.xlsx
@@ -2857,11 +2857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-271505280"/>
-        <c:axId val="-271505824"/>
+        <c:axId val="1407112112"/>
+        <c:axId val="1407115376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-271505280"/>
+        <c:axId val="1407112112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,7 +2940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271505824"/>
+        <c:crossAx val="1407115376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2950,7 +2950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271505824"/>
+        <c:axId val="1407115376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,9 +3029,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271505280"/>
+        <c:crossAx val="1407112112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3442,7 +3443,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3927,8 +3930,8 @@
         </c:dLbls>
         <c:gapWidth val="5"/>
         <c:overlap val="100"/>
-        <c:axId val="-271496576"/>
-        <c:axId val="-271496032"/>
+        <c:axId val="1407112656"/>
+        <c:axId val="1407113200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4140,11 +4143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-271504736"/>
-        <c:axId val="-271498208"/>
+        <c:axId val="1407106128"/>
+        <c:axId val="1407105584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-271496576"/>
+        <c:axId val="1407112656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271496032"/>
+        <c:crossAx val="1407113200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4214,7 +4217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271496032"/>
+        <c:axId val="1407113200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,12 +4282,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271496576"/>
+        <c:crossAx val="1407112656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-271498208"/>
+        <c:axId val="1407105584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4294,12 +4298,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271504736"/>
+        <c:crossAx val="1407106128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-271504736"/>
+        <c:axId val="1407106128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +4313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271498208"/>
+        <c:crossAx val="1407105584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4887,7 +4892,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5689,8 +5696,8 @@
         </c:dLbls>
         <c:gapWidth val="5"/>
         <c:overlap val="100"/>
-        <c:axId val="-271493856"/>
-        <c:axId val="-271501472"/>
+        <c:axId val="1407116464"/>
+        <c:axId val="1407117008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5902,11 +5909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-339005456"/>
-        <c:axId val="-271500928"/>
+        <c:axId val="1405265456"/>
+        <c:axId val="1407118096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-271493856"/>
+        <c:axId val="1407116464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5957,7 +5964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271501472"/>
+        <c:crossAx val="1407117008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5966,7 +5973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271501472"/>
+        <c:axId val="1407117008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6038,12 +6045,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-271493856"/>
+        <c:crossAx val="1407116464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-271500928"/>
+        <c:axId val="1407118096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6094,12 +6102,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-339005456"/>
+        <c:crossAx val="1405265456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-339005456"/>
+        <c:axId val="1405265456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6108,7 +6117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271500928"/>
+        <c:crossAx val="1407118096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6202,6 +6211,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6394,11 +6404,11 @@
         </c:dLbls>
         <c:gapWidth val="27"/>
         <c:overlap val="100"/>
-        <c:axId val="-108981936"/>
-        <c:axId val="-108990096"/>
+        <c:axId val="1405270352"/>
+        <c:axId val="1411088128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-108981936"/>
+        <c:axId val="1405270352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6425,6 +6435,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6448,7 +6459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-108990096"/>
+        <c:crossAx val="1411088128"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6456,7 +6467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-108990096"/>
+        <c:axId val="1411088128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6528,7 +6539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-108981936"/>
+        <c:crossAx val="1405270352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
@@ -6536,6 +6547,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
